--- a/calc/doc/BasicDesignDoc.xlsx
+++ b/calc/doc/BasicDesignDoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧表" sheetId="1" r:id="rId1"/>
@@ -1144,73 +1144,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="フローチャート: 処理 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="3571875"/>
-          <a:ext cx="1171575" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>結果チェック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -1451,113 +1384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
-          <a:endCxn id="22" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="3929063"/>
-          <a:ext cx="885825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="3929063"/>
-          <a:ext cx="885825" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
@@ -1567,13 +1400,13 @@
         <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
+          <a:endCxn id="22" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4114800" y="3929063"/>
-          <a:ext cx="685800" cy="0"/>
+          <a:ext cx="2743200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1905,13 +1738,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1921,7 +1754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="6667500"/>
+          <a:off x="2743200" y="5715000"/>
           <a:ext cx="1371600" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2037,73 +1870,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 判断 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="4762500"/>
-          <a:ext cx="2743200" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>結果チェック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -2240,14 +2006,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2256,7 +2022,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="5715000"/>
+          <a:off x="2743200" y="4752975"/>
           <a:ext cx="1371600" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2374,13 +2140,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2390,7 +2156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="5715000"/>
+          <a:off x="5486400" y="4762500"/>
           <a:ext cx="1371600" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2662,7 +2428,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="直線コネクタ 24"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
           <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -2746,65 +2511,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3429000" y="5238750"/>
-          <a:ext cx="0" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2817,8 +2530,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3429000" y="6191250"/>
-          <a:ext cx="0" cy="476250"/>
+          <a:off x="3429000" y="5229225"/>
+          <a:ext cx="0" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2856,7 +2569,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2870,7 +2583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4800600" y="2143125"/>
-          <a:ext cx="1371600" cy="3571875"/>
+          <a:ext cx="1371600" cy="2619375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2900,28 +2613,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="直線コネクタ 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4800600" y="5000625"/>
-          <a:ext cx="1371600" cy="0"/>
+          <a:off x="4114800" y="4048125"/>
+          <a:ext cx="2057400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2953,13 +2664,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2971,7 +2682,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4681538" y="4938712"/>
+          <a:off x="4681538" y="3986212"/>
           <a:ext cx="238125" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -3268,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
@@ -3397,7 +3108,7 @@
   <dimension ref="B4:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3423,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/calc/doc/BasicDesignDoc.xlsx
+++ b/calc/doc/BasicDesignDoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\Calculator\calc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\C++_Jenkins\Calculator\calc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧表" sheetId="1" r:id="rId1"/>
@@ -154,13 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「計算結果は○○です。」と出力。</t>
-    <rPh sb="13" eb="15">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンソールから計算式の入力をうける。</t>
     <rPh sb="7" eb="9">
       <t>ケイサン</t>
@@ -336,6 +329,13 @@
   <si>
     <t>入力がされずにEnterが押下された場合は、
 「エラー：入力がありません。」と出力。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「計算結果は○○です」と出力。</t>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2979,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3030,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -3039,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3048,21 +3048,21 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
@@ -3073,23 +3073,23 @@
       <c r="A10" s="5"/>
       <c r="B10" s="23"/>
       <c r="C10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3115,12 +3115,12 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/calc/doc/BasicDesignDoc.xlsx
+++ b/calc/doc/BasicDesignDoc.xlsx
@@ -332,8 +332,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「計算結果は○○です」と出力。</t>
-    <rPh sb="12" eb="14">
+    <t>「計算結果は○○です。」と出力。</t>
+    <rPh sb="13" eb="15">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>

--- a/calc/doc/BasicDesignDoc.xlsx
+++ b/calc/doc/BasicDesignDoc.xlsx
@@ -332,8 +332,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「計算結果は○○です。」と出力。</t>
-    <rPh sb="13" eb="15">
+    <t>「計算結果は○○です」と出力。</t>
+    <rPh sb="12" eb="14">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
